--- a/team_specific_matrix/Bethel (TN)_B.xlsx
+++ b/team_specific_matrix/Bethel (TN)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3978494623655914</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
   </sheetData>
